--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -2301,7 +2301,7 @@
         <v>82.59999999999999</v>
       </c>
       <c r="G50">
-        <v>71.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H50">
         <v>79.40000000000001</v>
@@ -2327,7 +2327,7 @@
         <v>94.7</v>
       </c>
       <c r="E51">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F51">
         <v>83.40000000000001</v>
@@ -2359,7 +2359,7 @@
         <v>90.8</v>
       </c>
       <c r="E52">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="F52">
         <v>83.8</v>
@@ -2414,19 +2414,19 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C54">
         <v>85.90000000000001</v>
       </c>
       <c r="D54">
-        <v>89.40000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E54">
         <v>85.3</v>
       </c>
       <c r="F54">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="G54">
         <v>64.90000000000001</v>
@@ -2519,7 +2519,7 @@
         <v>95.7</v>
       </c>
       <c r="E57">
-        <v>86.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="F57">
         <v>81.5</v>
@@ -2621,7 +2621,7 @@
         <v>85.7</v>
       </c>
       <c r="G60">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H60">
         <v>86.8</v>
@@ -2685,7 +2685,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="G62">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="H62">
         <v>89.90000000000001</v>
@@ -2880,7 +2880,7 @@
         <v>93.3</v>
       </c>
       <c r="H68">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="I68">
         <v>96.5</v>
@@ -2967,13 +2967,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="E71">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="F71">
         <v>100.2</v>
       </c>
       <c r="G71">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="H71">
         <v>100</v>
@@ -3005,7 +3005,7 @@
         <v>100.2</v>
       </c>
       <c r="G72">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="H72">
         <v>100.2</v>
@@ -3063,7 +3063,7 @@
         <v>103</v>
       </c>
       <c r="E74">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="F74">
         <v>98.5</v>
@@ -3133,7 +3133,7 @@
         <v>99</v>
       </c>
       <c r="G76">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="H76">
         <v>102.8</v>
@@ -3182,7 +3182,7 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="C78">
         <v>100.9</v>
@@ -3194,10 +3194,10 @@
         <v>97.8</v>
       </c>
       <c r="F78">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="G78">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="H78">
         <v>104.3</v>
@@ -3229,7 +3229,7 @@
         <v>104.8</v>
       </c>
       <c r="G79">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="H79">
         <v>105.1</v>
@@ -3249,7 +3249,7 @@
         <v>103.9</v>
       </c>
       <c r="C80">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D80">
         <v>96.2</v>
@@ -3261,7 +3261,7 @@
         <v>105.9</v>
       </c>
       <c r="G80">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="H80">
         <v>106.2</v>
@@ -3270,7 +3270,7 @@
         <v>103.9</v>
       </c>
       <c r="J80">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3293,7 +3293,7 @@
         <v>106</v>
       </c>
       <c r="G81">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="H81">
         <v>107.2</v>
@@ -3313,16 +3313,16 @@
         <v>105.6</v>
       </c>
       <c r="C82">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="D82">
         <v>103.4</v>
       </c>
       <c r="E82">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="F82">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="G82">
         <v>105.6</v>
@@ -3348,7 +3348,7 @@
         <v>101.8</v>
       </c>
       <c r="D83">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="E83">
         <v>97.09999999999999</v>
@@ -3357,16 +3357,16 @@
         <v>107.1</v>
       </c>
       <c r="G83">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="H83">
         <v>108.3</v>
       </c>
       <c r="I83">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="J83">
-        <v>105.9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3374,31 +3374,31 @@
         <v>92</v>
       </c>
       <c r="B84">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="C84">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D84">
         <v>96.40000000000001</v>
       </c>
       <c r="E84">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F84">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="G84">
-        <v>104.9</v>
+        <v>104.6</v>
       </c>
       <c r="H84">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="I84">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="J84">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3406,7 +3406,7 @@
         <v>93</v>
       </c>
       <c r="B85">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="C85">
         <v>101.4</v>
@@ -3421,7 +3421,7 @@
         <v>107.7</v>
       </c>
       <c r="G85">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="H85">
         <v>109</v>
@@ -3444,16 +3444,16 @@
         <v>99.2</v>
       </c>
       <c r="D86">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="E86">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F86">
         <v>107.1</v>
       </c>
       <c r="G86">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="H86">
         <v>108.4</v>
@@ -3476,25 +3476,25 @@
         <v>100.8</v>
       </c>
       <c r="D87">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E87">
         <v>98.59999999999999</v>
       </c>
       <c r="F87">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="G87">
-        <v>109.9</v>
+        <v>110.3</v>
       </c>
       <c r="H87">
         <v>109.1</v>
       </c>
       <c r="I87">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="J87">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3502,10 +3502,10 @@
         <v>96</v>
       </c>
       <c r="B88">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="C88">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D88">
         <v>101.7</v>
@@ -3514,19 +3514,19 @@
         <v>100.7</v>
       </c>
       <c r="F88">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="G88">
-        <v>109.5</v>
+        <v>109</v>
       </c>
       <c r="H88">
         <v>110.8</v>
       </c>
       <c r="I88">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="J88">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3549,7 +3549,7 @@
         <v>108.6</v>
       </c>
       <c r="G89">
-        <v>110.8</v>
+        <v>110.6</v>
       </c>
       <c r="H89">
         <v>111.4</v>
@@ -3572,16 +3572,16 @@
         <v>106.2</v>
       </c>
       <c r="D90">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="E90">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="F90">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="G90">
-        <v>112.4</v>
+        <v>112.7</v>
       </c>
       <c r="H90">
         <v>112.5</v>
@@ -3598,22 +3598,22 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="C91">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="D91">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="E91">
-        <v>105.2</v>
+        <v>105</v>
       </c>
       <c r="F91">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="G91">
-        <v>114.1</v>
+        <v>114.6</v>
       </c>
       <c r="H91">
         <v>113.7</v>
@@ -3622,7 +3622,7 @@
         <v>111</v>
       </c>
       <c r="J91">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3630,31 +3630,31 @@
         <v>100</v>
       </c>
       <c r="B92">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="C92">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="D92">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E92">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="F92">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="G92">
+        <v>113.4</v>
+      </c>
+      <c r="H92">
         <v>114.1</v>
       </c>
-      <c r="H92">
-        <v>114.2</v>
-      </c>
       <c r="I92">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="J92">
-        <v>112.1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3671,13 +3671,13 @@
         <v>103.4</v>
       </c>
       <c r="E93">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="F93">
         <v>110.6</v>
       </c>
       <c r="G93">
-        <v>113.5</v>
+        <v>113.3</v>
       </c>
       <c r="H93">
         <v>115.5</v>
@@ -3694,28 +3694,28 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="C94">
         <v>104.4</v>
       </c>
       <c r="D94">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E94">
         <v>103.3</v>
       </c>
       <c r="F94">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="G94">
-        <v>114.1</v>
+        <v>114.4</v>
       </c>
       <c r="H94">
         <v>116.4</v>
       </c>
       <c r="I94">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="J94">
         <v>113.6</v>
@@ -3726,31 +3726,31 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="C95">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="D95">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E95">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="F95">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="G95">
-        <v>116.2</v>
+        <v>117</v>
       </c>
       <c r="H95">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="I95">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="J95">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3758,31 +3758,31 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="C96">
-        <v>107.2</v>
+        <v>107.4</v>
       </c>
       <c r="D96">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="E96">
-        <v>105</v>
+        <v>105.2</v>
       </c>
       <c r="F96">
-        <v>112.6</v>
+        <v>112.9</v>
       </c>
       <c r="G96">
-        <v>115.6</v>
+        <v>114.5</v>
       </c>
       <c r="H96">
-        <v>118</v>
+        <v>117.9</v>
       </c>
       <c r="I96">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
       <c r="J96">
-        <v>115.3</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3790,7 +3790,7 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="C97">
         <v>105.4</v>
@@ -3799,13 +3799,13 @@
         <v>101.7</v>
       </c>
       <c r="E97">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="F97">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="G97">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="H97">
         <v>112.8</v>
@@ -3814,7 +3814,7 @@
         <v>109.5</v>
       </c>
       <c r="J97">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3825,28 +3825,28 @@
         <v>111.8</v>
       </c>
       <c r="C98">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="D98">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="E98">
         <v>102.8</v>
       </c>
       <c r="F98">
-        <v>112.7</v>
+        <v>112.4</v>
       </c>
       <c r="G98">
-        <v>111</v>
+        <v>111.3</v>
       </c>
       <c r="H98">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="I98">
         <v>111.8</v>
       </c>
       <c r="J98">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3854,31 +3854,31 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="C99">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="D99">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="E99">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="F99">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G99">
-        <v>93.8</v>
+        <v>94.7</v>
       </c>
       <c r="H99">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I99">
         <v>98.09999999999999</v>
       </c>
       <c r="J99">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3886,31 +3886,31 @@
         <v>108</v>
       </c>
       <c r="B100">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="C100">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="D100">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="E100">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F100">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G100">
-        <v>114.4</v>
+        <v>113.1</v>
       </c>
       <c r="H100">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="I100">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="J100">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3918,10 +3918,10 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="C101">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D101">
         <v>99</v>
@@ -3930,10 +3930,10 @@
         <v>105.4</v>
       </c>
       <c r="F101">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="G101">
-        <v>123</v>
+        <v>122.6</v>
       </c>
       <c r="H101">
         <v>110</v>
@@ -3942,7 +3942,7 @@
         <v>108.9</v>
       </c>
       <c r="J101">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3950,31 +3950,31 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="C102">
-        <v>104.4</v>
+        <v>104.7</v>
       </c>
       <c r="D102">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="E102">
-        <v>105.6</v>
+        <v>106.3</v>
       </c>
       <c r="F102">
-        <v>106.9</v>
+        <v>107.1</v>
       </c>
       <c r="G102">
-        <v>125.5</v>
+        <v>125.3</v>
       </c>
       <c r="H102">
-        <v>116.2</v>
+        <v>116.4</v>
       </c>
       <c r="I102">
-        <v>112.5</v>
+        <v>112.7</v>
       </c>
       <c r="J102">
-        <v>114.7</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3982,31 +3982,31 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>113.9</v>
+        <v>114.6</v>
       </c>
       <c r="C103">
-        <v>105.9</v>
+        <v>106.7</v>
       </c>
       <c r="D103">
-        <v>102.7</v>
+        <v>103.8</v>
       </c>
       <c r="E103">
-        <v>106.7</v>
+        <v>107.3</v>
       </c>
       <c r="F103">
-        <v>108.3</v>
+        <v>108.9</v>
       </c>
       <c r="G103">
-        <v>135.5</v>
+        <v>136.3</v>
       </c>
       <c r="H103">
-        <v>113.5</v>
+        <v>114.1</v>
       </c>
       <c r="I103">
-        <v>112.7</v>
+        <v>113.4</v>
       </c>
       <c r="J103">
-        <v>115.3</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -2304,7 +2304,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="H50">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="I50">
         <v>83.59999999999999</v>
@@ -2333,7 +2333,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="G51">
-        <v>71.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H51">
         <v>80.8</v>
@@ -2356,7 +2356,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="D52">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E52">
         <v>89.7</v>
@@ -2388,10 +2388,10 @@
         <v>86.59999999999999</v>
       </c>
       <c r="D53">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="E53">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="F53">
         <v>83.09999999999999</v>
@@ -2414,13 +2414,13 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="C54">
         <v>85.90000000000001</v>
       </c>
       <c r="D54">
-        <v>89.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E54">
         <v>85.3</v>
@@ -2452,10 +2452,10 @@
         <v>86.5</v>
       </c>
       <c r="D55">
-        <v>92.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E55">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F55">
         <v>82.40000000000001</v>
@@ -2464,7 +2464,7 @@
         <v>63.3</v>
       </c>
       <c r="H55">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I55">
         <v>81.3</v>
@@ -2481,10 +2481,10 @@
         <v>81.3</v>
       </c>
       <c r="C56">
-        <v>87.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="D56">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="E56">
         <v>83.7</v>
@@ -2493,7 +2493,7 @@
         <v>83</v>
       </c>
       <c r="G56">
-        <v>64.40000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="H56">
         <v>81.59999999999999</v>
@@ -2534,7 +2534,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="J57">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2598,7 +2598,7 @@
         <v>85.7</v>
       </c>
       <c r="J59">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2612,7 +2612,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="D60">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="E60">
         <v>89.90000000000001</v>
@@ -2644,13 +2644,13 @@
         <v>91.7</v>
       </c>
       <c r="D61">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E61">
         <v>91.7</v>
       </c>
       <c r="F61">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G61">
         <v>80.09999999999999</v>
@@ -2685,7 +2685,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="G62">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H62">
         <v>89.90000000000001</v>
@@ -2708,10 +2708,10 @@
         <v>92.2</v>
       </c>
       <c r="D63">
-        <v>91.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="E63">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F63">
         <v>90.90000000000001</v>
@@ -2740,7 +2740,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="D64">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="E64">
         <v>95.3</v>
@@ -2772,7 +2772,7 @@
         <v>93.40000000000001</v>
       </c>
       <c r="D65">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="E65">
         <v>94.5</v>
@@ -2804,7 +2804,7 @@
         <v>95</v>
       </c>
       <c r="D66">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E66">
         <v>97.3</v>
@@ -2839,7 +2839,7 @@
         <v>94.2</v>
       </c>
       <c r="E67">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="F67">
         <v>96.2</v>
@@ -2868,7 +2868,7 @@
         <v>96.3</v>
       </c>
       <c r="D68">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E68">
         <v>98.8</v>
@@ -2894,7 +2894,7 @@
         <v>77</v>
       </c>
       <c r="B69">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="C69">
         <v>96.7</v>
@@ -2973,7 +2973,7 @@
         <v>100.2</v>
       </c>
       <c r="G71">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="H71">
         <v>100</v>
@@ -2996,7 +2996,7 @@
         <v>101.3</v>
       </c>
       <c r="D72">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="E72">
         <v>101.2</v>
@@ -3005,7 +3005,7 @@
         <v>100.2</v>
       </c>
       <c r="G72">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="H72">
         <v>100.2</v>
@@ -3060,7 +3060,7 @@
         <v>100</v>
       </c>
       <c r="D74">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="E74">
         <v>98.8</v>
@@ -3104,7 +3104,7 @@
         <v>102.5</v>
       </c>
       <c r="H75">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="I75">
         <v>101.7</v>
@@ -3124,7 +3124,7 @@
         <v>99.59999999999999</v>
       </c>
       <c r="D76">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="E76">
         <v>98.5</v>
@@ -3156,13 +3156,13 @@
         <v>101.1</v>
       </c>
       <c r="D77">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="E77">
         <v>98.8</v>
       </c>
       <c r="F77">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="G77">
         <v>102.7</v>
@@ -3182,13 +3182,13 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="C78">
         <v>100.9</v>
       </c>
       <c r="D78">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="E78">
         <v>97.8</v>
@@ -3220,7 +3220,7 @@
         <v>103.4</v>
       </c>
       <c r="D79">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="E79">
         <v>100.4</v>
@@ -3229,7 +3229,7 @@
         <v>104.8</v>
       </c>
       <c r="G79">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="H79">
         <v>105.1</v>
@@ -3238,7 +3238,7 @@
         <v>104.4</v>
       </c>
       <c r="J79">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3252,7 +3252,7 @@
         <v>100.7</v>
       </c>
       <c r="D80">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E80">
         <v>99</v>
@@ -3284,7 +3284,7 @@
         <v>102.1</v>
       </c>
       <c r="D81">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="E81">
         <v>99.3</v>
@@ -3296,13 +3296,13 @@
         <v>103.7</v>
       </c>
       <c r="H81">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="I81">
         <v>104.9</v>
       </c>
       <c r="J81">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3316,7 +3316,7 @@
         <v>102.8</v>
       </c>
       <c r="D82">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="E82">
         <v>98.8</v>
@@ -3348,7 +3348,7 @@
         <v>101.8</v>
       </c>
       <c r="D83">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E83">
         <v>97.09999999999999</v>
@@ -3357,10 +3357,10 @@
         <v>107.1</v>
       </c>
       <c r="G83">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="H83">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="I83">
         <v>105.5</v>
@@ -3374,13 +3374,13 @@
         <v>92</v>
       </c>
       <c r="B84">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="C84">
         <v>101.4</v>
       </c>
       <c r="D84">
-        <v>96.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E84">
         <v>97.2</v>
@@ -3389,13 +3389,13 @@
         <v>108.5</v>
       </c>
       <c r="G84">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="H84">
         <v>108.9</v>
       </c>
       <c r="I84">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="J84">
         <v>106.7</v>
@@ -3418,19 +3418,19 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F85">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="G85">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="H85">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="I85">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="J85">
-        <v>107.1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3441,10 +3441,10 @@
         <v>105.2</v>
       </c>
       <c r="C86">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D86">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="E86">
         <v>97.5</v>
@@ -3459,7 +3459,7 @@
         <v>108.4</v>
       </c>
       <c r="I86">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="J86">
         <v>106.8</v>
@@ -3470,31 +3470,31 @@
         <v>95</v>
       </c>
       <c r="B87">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="C87">
         <v>100.8</v>
       </c>
       <c r="D87">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E87">
         <v>98.59999999999999</v>
       </c>
       <c r="F87">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="G87">
-        <v>110.3</v>
+        <v>110.1</v>
       </c>
       <c r="H87">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="I87">
         <v>106.1</v>
       </c>
       <c r="J87">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3505,16 +3505,16 @@
         <v>108.1</v>
       </c>
       <c r="C88">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D88">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
       <c r="E88">
         <v>100.7</v>
       </c>
       <c r="F88">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="G88">
         <v>109</v>
@@ -3523,7 +3523,7 @@
         <v>110.8</v>
       </c>
       <c r="I88">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="J88">
         <v>108.8</v>
@@ -3537,7 +3537,7 @@
         <v>109.1</v>
       </c>
       <c r="C89">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="D89">
         <v>103.2</v>
@@ -3552,13 +3552,13 @@
         <v>110.6</v>
       </c>
       <c r="H89">
-        <v>111.4</v>
+        <v>111.2</v>
       </c>
       <c r="I89">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="J89">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3572,7 +3572,7 @@
         <v>106.2</v>
       </c>
       <c r="D90">
-        <v>105.9</v>
+        <v>105.7</v>
       </c>
       <c r="E90">
         <v>101.3</v>
@@ -3587,7 +3587,7 @@
         <v>112.5</v>
       </c>
       <c r="I90">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="J90">
         <v>110.8</v>
@@ -3598,31 +3598,31 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="C91">
         <v>106.2</v>
       </c>
       <c r="D91">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="E91">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="F91">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="G91">
-        <v>114.6</v>
+        <v>114.4</v>
       </c>
       <c r="H91">
-        <v>113.7</v>
+        <v>113.9</v>
       </c>
       <c r="I91">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="J91">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3630,28 +3630,28 @@
         <v>100</v>
       </c>
       <c r="B92">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="C92">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D92">
-        <v>100.6</v>
+        <v>101</v>
       </c>
       <c r="E92">
         <v>103.5</v>
       </c>
       <c r="F92">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="G92">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="H92">
         <v>114.1</v>
       </c>
       <c r="I92">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="J92">
         <v>112</v>
@@ -3662,7 +3662,7 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="C93">
         <v>106.5</v>
@@ -3671,22 +3671,22 @@
         <v>103.4</v>
       </c>
       <c r="E93">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="F93">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="G93">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="H93">
-        <v>115.5</v>
+        <v>115.3</v>
       </c>
       <c r="I93">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="J93">
-        <v>113.1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3694,13 +3694,13 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="C94">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="D94">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E94">
         <v>103.3</v>
@@ -3715,7 +3715,7 @@
         <v>116.4</v>
       </c>
       <c r="I94">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="J94">
         <v>113.6</v>
@@ -3726,31 +3726,31 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="C95">
         <v>105.5</v>
       </c>
       <c r="D95">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="E95">
         <v>104.5</v>
       </c>
       <c r="F95">
-        <v>112.1</v>
+        <v>112.3</v>
       </c>
       <c r="G95">
-        <v>117</v>
+        <v>116.8</v>
       </c>
       <c r="H95">
-        <v>117.3</v>
+        <v>117.6</v>
       </c>
       <c r="I95">
-        <v>112.9</v>
+        <v>113</v>
       </c>
       <c r="J95">
-        <v>114.9</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3758,28 +3758,28 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="C96">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D96">
-        <v>102.4</v>
+        <v>102.9</v>
       </c>
       <c r="E96">
         <v>105.2</v>
       </c>
       <c r="F96">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="G96">
-        <v>114.5</v>
+        <v>114.7</v>
       </c>
       <c r="H96">
         <v>117.9</v>
       </c>
       <c r="I96">
-        <v>113.6</v>
+        <v>113.7</v>
       </c>
       <c r="J96">
         <v>115.1</v>
@@ -3790,7 +3790,7 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="C97">
         <v>105.4</v>
@@ -3802,19 +3802,19 @@
         <v>101.8</v>
       </c>
       <c r="F97">
-        <v>111.1</v>
+        <v>111</v>
       </c>
       <c r="G97">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="H97">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
       <c r="I97">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="J97">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3825,13 +3825,13 @@
         <v>111.8</v>
       </c>
       <c r="C98">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="D98">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="E98">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="F98">
         <v>112.4</v>
@@ -3840,13 +3840,13 @@
         <v>111.3</v>
       </c>
       <c r="H98">
-        <v>115.8</v>
+        <v>115.9</v>
       </c>
       <c r="I98">
         <v>111.8</v>
       </c>
       <c r="J98">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3854,31 +3854,31 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C99">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D99">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="E99">
         <v>92.5</v>
       </c>
       <c r="F99">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="G99">
-        <v>94.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H99">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="I99">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="J99">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3889,19 +3889,19 @@
         <v>102.8</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="D100">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="E100">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="F100">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="G100">
-        <v>113.1</v>
+        <v>113.3</v>
       </c>
       <c r="H100">
         <v>103.1</v>
@@ -3910,7 +3910,7 @@
         <v>102.2</v>
       </c>
       <c r="J100">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3918,7 +3918,7 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="C101">
         <v>103.8</v>
@@ -3927,22 +3927,22 @@
         <v>99</v>
       </c>
       <c r="E101">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="F101">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="G101">
-        <v>122.6</v>
+        <v>122.8</v>
       </c>
       <c r="H101">
-        <v>110</v>
+        <v>109.7</v>
       </c>
       <c r="I101">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="J101">
-        <v>110.6</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3953,10 +3953,10 @@
         <v>113.3</v>
       </c>
       <c r="C102">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="D102">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="E102">
         <v>106.3</v>
@@ -3968,7 +3968,7 @@
         <v>125.3</v>
       </c>
       <c r="H102">
-        <v>116.4</v>
+        <v>116.5</v>
       </c>
       <c r="I102">
         <v>112.7</v>
@@ -3982,31 +3982,31 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>114.6</v>
+        <v>114.9</v>
       </c>
       <c r="C103">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="D103">
-        <v>103.8</v>
+        <v>103.4</v>
       </c>
       <c r="E103">
         <v>107.3</v>
       </c>
       <c r="F103">
-        <v>108.9</v>
+        <v>109.1</v>
       </c>
       <c r="G103">
-        <v>136.3</v>
+        <v>135.8</v>
       </c>
       <c r="H103">
-        <v>114.1</v>
+        <v>114.6</v>
       </c>
       <c r="I103">
-        <v>113.4</v>
+        <v>113.6</v>
       </c>
       <c r="J103">
-        <v>116</v>
+        <v>116.3</v>
       </c>
     </row>
   </sheetData>

--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Serie</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2304,10 +2307,10 @@
         <v>71.09999999999999</v>
       </c>
       <c r="H50">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I50">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="J50">
         <v>80.59999999999999</v>
@@ -2356,7 +2359,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="D52">
-        <v>90.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="E52">
         <v>89.7</v>
@@ -2400,10 +2403,10 @@
         <v>67.5</v>
       </c>
       <c r="H53">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="I53">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="J53">
         <v>80.09999999999999</v>
@@ -2414,13 +2417,13 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C54">
         <v>85.90000000000001</v>
       </c>
       <c r="D54">
-        <v>89.40000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E54">
         <v>85.3</v>
@@ -2452,7 +2455,7 @@
         <v>86.5</v>
       </c>
       <c r="D55">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="E55">
         <v>83.59999999999999</v>
@@ -2464,7 +2467,7 @@
         <v>63.3</v>
       </c>
       <c r="H55">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="I55">
         <v>81.3</v>
@@ -2481,10 +2484,10 @@
         <v>81.3</v>
       </c>
       <c r="C56">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D56">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="E56">
         <v>83.7</v>
@@ -2493,7 +2496,7 @@
         <v>83</v>
       </c>
       <c r="G56">
-        <v>64.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H56">
         <v>81.59999999999999</v>
@@ -2528,7 +2531,7 @@
         <v>66.3</v>
       </c>
       <c r="H57">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="I57">
         <v>83.09999999999999</v>
@@ -2560,13 +2563,13 @@
         <v>69.40000000000001</v>
       </c>
       <c r="H58">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="I58">
         <v>83.2</v>
       </c>
       <c r="J58">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2612,7 +2615,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="D60">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E60">
         <v>89.90000000000001</v>
@@ -2662,7 +2665,7 @@
         <v>88.8</v>
       </c>
       <c r="J61">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2708,7 +2711,7 @@
         <v>92.2</v>
       </c>
       <c r="D63">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E63">
         <v>94.59999999999999</v>
@@ -2740,7 +2743,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="D64">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E64">
         <v>95.3</v>
@@ -2784,7 +2787,7 @@
         <v>89</v>
       </c>
       <c r="H65">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="I65">
         <v>93.09999999999999</v>
@@ -2804,7 +2807,7 @@
         <v>95</v>
       </c>
       <c r="D66">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E66">
         <v>97.3</v>
@@ -2868,7 +2871,7 @@
         <v>96.3</v>
       </c>
       <c r="D68">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="E68">
         <v>98.8</v>
@@ -2880,7 +2883,7 @@
         <v>93.3</v>
       </c>
       <c r="H68">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I68">
         <v>96.5</v>
@@ -2906,7 +2909,7 @@
         <v>98</v>
       </c>
       <c r="F69">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G69">
         <v>96</v>
@@ -2996,13 +2999,13 @@
         <v>101.3</v>
       </c>
       <c r="D72">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="E72">
         <v>101.2</v>
       </c>
       <c r="F72">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="G72">
         <v>100.9</v>
@@ -3034,7 +3037,7 @@
         <v>98.7</v>
       </c>
       <c r="F73">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="G73">
         <v>102.1</v>
@@ -3060,7 +3063,7 @@
         <v>100</v>
       </c>
       <c r="D74">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="E74">
         <v>98.8</v>
@@ -3095,7 +3098,7 @@
         <v>103.7</v>
       </c>
       <c r="E75">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="F75">
         <v>99.3</v>
@@ -3104,7 +3107,7 @@
         <v>102.5</v>
       </c>
       <c r="H75">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="I75">
         <v>101.7</v>
@@ -3124,7 +3127,7 @@
         <v>99.59999999999999</v>
       </c>
       <c r="D76">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="E76">
         <v>98.5</v>
@@ -3156,7 +3159,7 @@
         <v>101.1</v>
       </c>
       <c r="D77">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="E77">
         <v>98.8</v>
@@ -3226,7 +3229,7 @@
         <v>100.4</v>
       </c>
       <c r="F79">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="G79">
         <v>104.5</v>
@@ -3252,7 +3255,7 @@
         <v>100.7</v>
       </c>
       <c r="D80">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E80">
         <v>99</v>
@@ -3264,13 +3267,13 @@
         <v>103.9</v>
       </c>
       <c r="H80">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="I80">
         <v>103.9</v>
       </c>
       <c r="J80">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3284,13 +3287,13 @@
         <v>102.1</v>
       </c>
       <c r="D81">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E81">
         <v>99.3</v>
       </c>
       <c r="F81">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="G81">
         <v>103.7</v>
@@ -3299,7 +3302,7 @@
         <v>107.1</v>
       </c>
       <c r="I81">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="J81">
         <v>105.4</v>
@@ -3316,19 +3319,19 @@
         <v>102.8</v>
       </c>
       <c r="D82">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="E82">
         <v>98.8</v>
       </c>
       <c r="F82">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="G82">
         <v>105.6</v>
       </c>
       <c r="H82">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="I82">
         <v>105.7</v>
@@ -3342,19 +3345,19 @@
         <v>91</v>
       </c>
       <c r="B83">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="C83">
         <v>101.8</v>
       </c>
       <c r="D83">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E83">
         <v>97.09999999999999</v>
       </c>
       <c r="F83">
-        <v>107.1</v>
+        <v>107.3</v>
       </c>
       <c r="G83">
         <v>104.5</v>
@@ -3380,7 +3383,7 @@
         <v>101.4</v>
       </c>
       <c r="D84">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E84">
         <v>97.2</v>
@@ -3392,13 +3395,13 @@
         <v>104.7</v>
       </c>
       <c r="H84">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="I84">
         <v>105.7</v>
       </c>
       <c r="J84">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3412,13 +3415,13 @@
         <v>101.4</v>
       </c>
       <c r="D85">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E85">
         <v>98.59999999999999</v>
       </c>
       <c r="F85">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="G85">
         <v>106.3</v>
@@ -3438,7 +3441,7 @@
         <v>94</v>
       </c>
       <c r="B86">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="C86">
         <v>99.09999999999999</v>
@@ -3450,19 +3453,19 @@
         <v>97.5</v>
       </c>
       <c r="F86">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="G86">
         <v>107.7</v>
       </c>
       <c r="H86">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="I86">
         <v>104.8</v>
       </c>
       <c r="J86">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3476,22 +3479,22 @@
         <v>100.8</v>
       </c>
       <c r="D87">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="E87">
         <v>98.59999999999999</v>
       </c>
       <c r="F87">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="G87">
         <v>110.1</v>
       </c>
       <c r="H87">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="I87">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="J87">
         <v>107.4</v>
@@ -3502,31 +3505,31 @@
         <v>96</v>
       </c>
       <c r="B88">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="C88">
         <v>103.8</v>
       </c>
       <c r="D88">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="E88">
         <v>100.7</v>
       </c>
       <c r="F88">
-        <v>107.8</v>
+        <v>108</v>
       </c>
       <c r="G88">
         <v>109</v>
       </c>
       <c r="H88">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="I88">
         <v>108</v>
       </c>
       <c r="J88">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3534,31 +3537,31 @@
         <v>97</v>
       </c>
       <c r="B89">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="C89">
         <v>104.7</v>
       </c>
       <c r="D89">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="E89">
         <v>101.8</v>
       </c>
       <c r="F89">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="G89">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="H89">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I89">
         <v>108.7</v>
       </c>
       <c r="J89">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3566,10 +3569,10 @@
         <v>98</v>
       </c>
       <c r="B90">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="C90">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="D90">
         <v>105.7</v>
@@ -3578,19 +3581,19 @@
         <v>101.3</v>
       </c>
       <c r="F90">
-        <v>110.3</v>
+        <v>110.1</v>
       </c>
       <c r="G90">
         <v>112.7</v>
       </c>
       <c r="H90">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="I90">
         <v>110.1</v>
       </c>
       <c r="J90">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3598,31 +3601,31 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="C91">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D91">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="E91">
         <v>105.1</v>
       </c>
       <c r="F91">
-        <v>110.6</v>
+        <v>110.9</v>
       </c>
       <c r="G91">
         <v>114.4</v>
       </c>
       <c r="H91">
-        <v>113.9</v>
+        <v>114.1</v>
       </c>
       <c r="I91">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="J91">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3633,28 +3636,28 @@
         <v>111</v>
       </c>
       <c r="C92">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D92">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="E92">
         <v>103.5</v>
       </c>
       <c r="F92">
-        <v>108.8</v>
+        <v>109.1</v>
       </c>
       <c r="G92">
         <v>113.5</v>
       </c>
       <c r="H92">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="I92">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="J92">
-        <v>112</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3662,31 +3665,31 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C93">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="D93">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="E93">
         <v>104.1</v>
       </c>
       <c r="F93">
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
       <c r="G93">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="H93">
-        <v>115.3</v>
+        <v>115.1</v>
       </c>
       <c r="I93">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="J93">
-        <v>113</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3694,7 +3697,7 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="C94">
         <v>104.3</v>
@@ -3706,19 +3709,19 @@
         <v>103.3</v>
       </c>
       <c r="F94">
-        <v>111.2</v>
+        <v>111</v>
       </c>
       <c r="G94">
         <v>114.4</v>
       </c>
       <c r="H94">
-        <v>116.4</v>
+        <v>116.2</v>
       </c>
       <c r="I94">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="J94">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3726,31 +3729,31 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>113.4</v>
+        <v>113.6</v>
       </c>
       <c r="C95">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D95">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="E95">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="F95">
-        <v>112.3</v>
+        <v>112.6</v>
       </c>
       <c r="G95">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="H95">
-        <v>117.6</v>
+        <v>117.9</v>
       </c>
       <c r="I95">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="J95">
-        <v>115.1</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3758,31 +3761,31 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="C96">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D96">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="E96">
         <v>105.2</v>
       </c>
       <c r="F96">
-        <v>112.8</v>
+        <v>113.1</v>
       </c>
       <c r="G96">
         <v>114.7</v>
       </c>
       <c r="H96">
-        <v>117.9</v>
+        <v>118.1</v>
       </c>
       <c r="I96">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="J96">
-        <v>115.1</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3790,31 +3793,31 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="C97">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="D97">
+        <v>102</v>
+      </c>
+      <c r="E97">
         <v>101.7</v>
       </c>
-      <c r="E97">
-        <v>101.8</v>
-      </c>
       <c r="F97">
-        <v>111</v>
+        <v>110.5</v>
       </c>
       <c r="G97">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="H97">
-        <v>112.6</v>
+        <v>112.3</v>
       </c>
       <c r="I97">
-        <v>109.4</v>
+        <v>109.2</v>
       </c>
       <c r="J97">
-        <v>110.3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3822,31 +3825,31 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="C98">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="D98">
         <v>101.6</v>
       </c>
       <c r="E98">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="F98">
-        <v>112.4</v>
+        <v>112.2</v>
       </c>
       <c r="G98">
         <v>111.3</v>
       </c>
       <c r="H98">
-        <v>115.9</v>
+        <v>115.7</v>
       </c>
       <c r="I98">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="J98">
-        <v>112.9</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3854,31 +3857,31 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C99">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D99">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="E99">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F99">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="G99">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="H99">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="I99">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J99">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3886,10 +3889,10 @@
         <v>108</v>
       </c>
       <c r="B100">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="C100">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D100">
         <v>102.5</v>
@@ -3898,19 +3901,19 @@
         <v>98.8</v>
       </c>
       <c r="F100">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G100">
         <v>113.3</v>
       </c>
       <c r="H100">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="I100">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="J100">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3918,31 +3921,31 @@
         <v>109</v>
       </c>
       <c r="B101">
+        <v>109.1</v>
+      </c>
+      <c r="C101">
+        <v>103.6</v>
+      </c>
+      <c r="D101">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E101">
+        <v>105.3</v>
+      </c>
+      <c r="F101">
+        <v>105.4</v>
+      </c>
+      <c r="G101">
+        <v>122.9</v>
+      </c>
+      <c r="H101">
         <v>109.3</v>
       </c>
-      <c r="C101">
-        <v>103.8</v>
-      </c>
-      <c r="D101">
-        <v>99</v>
-      </c>
-      <c r="E101">
-        <v>105.5</v>
-      </c>
-      <c r="F101">
-        <v>105.9</v>
-      </c>
-      <c r="G101">
-        <v>122.8</v>
-      </c>
-      <c r="H101">
-        <v>109.7</v>
-      </c>
       <c r="I101">
-        <v>108.8</v>
+        <v>108.5</v>
       </c>
       <c r="J101">
-        <v>110.4</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3950,10 +3953,10 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="C102">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="D102">
         <v>100.5</v>
@@ -3962,19 +3965,19 @@
         <v>106.3</v>
       </c>
       <c r="F102">
-        <v>107.1</v>
+        <v>106.8</v>
       </c>
       <c r="G102">
         <v>125.3</v>
       </c>
       <c r="H102">
-        <v>116.5</v>
+        <v>116.3</v>
       </c>
       <c r="I102">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
       <c r="J102">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3982,31 +3985,63 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>114.9</v>
+        <v>115.1</v>
       </c>
       <c r="C103">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D103">
-        <v>103.4</v>
+        <v>103</v>
       </c>
       <c r="E103">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="F103">
-        <v>109.1</v>
+        <v>109.6</v>
       </c>
       <c r="G103">
-        <v>135.8</v>
+        <v>135.7</v>
       </c>
       <c r="H103">
-        <v>114.6</v>
+        <v>115.1</v>
       </c>
       <c r="I103">
-        <v>113.6</v>
+        <v>113.9</v>
       </c>
       <c r="J103">
-        <v>116.3</v>
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104">
+        <v>121.2</v>
+      </c>
+      <c r="C104">
+        <v>107.6</v>
+      </c>
+      <c r="D104">
+        <v>98.8</v>
+      </c>
+      <c r="E104">
+        <v>111.2</v>
+      </c>
+      <c r="F104">
+        <v>113.3</v>
+      </c>
+      <c r="G104">
+        <v>145.1</v>
+      </c>
+      <c r="H104">
+        <v>123.6</v>
+      </c>
+      <c r="I104">
+        <v>119.4</v>
+      </c>
+      <c r="J104">
+        <v>124.2</v>
       </c>
     </row>
   </sheetData>
